--- a/08_Tag 08/PA-Arbeitszeiten_0.8_Cvetkovic_David.xlsx
+++ b/08_Tag 08/PA-Arbeitszeiten_0.8_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\08_Tag 08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656A824-EB54-4128-91ED-C548AA038E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A59F14-0CF6-405E-9919-BF1D94DABADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,9 +648,15 @@
       <c r="D12" s="6">
         <v>0.49861111111111112</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="6">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.32916666666666666</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
